--- a/Capex_nrel.xlsx
+++ b/Capex_nrel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2914B4C4-16C3-40CE-B535-F2B8A97F4065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0AD0E1-1A6E-4CBB-9F33-4FAF9AA021D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E57F12C-6858-46C8-B69C-0D7C24A118EE}"/>
   </bookViews>
@@ -18,8 +18,8 @@
     <sheet name="Wind Onshore" sheetId="2" r:id="rId3"/>
     <sheet name="Wind Offshore" sheetId="3" r:id="rId4"/>
     <sheet name="Solar Utility" sheetId="4" r:id="rId5"/>
-    <sheet name="Solar Residential" sheetId="5" r:id="rId6"/>
-    <sheet name="Solar Commercial" sheetId="6" r:id="rId7"/>
+    <sheet name="Solar Commercial" sheetId="6" r:id="rId6"/>
+    <sheet name="Solar Residential" sheetId="5" r:id="rId7"/>
     <sheet name="Geothermal" sheetId="7" r:id="rId8"/>
     <sheet name="Hydropower" sheetId="8" r:id="rId9"/>
     <sheet name="Gas CT" sheetId="9" r:id="rId10"/>
@@ -1607,17 +1607,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wind Onshore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1632,2119 +1621,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$B$2:$B$43</c:f>
+              <c:f>Capex!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>3214285.7142857146</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2812500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3142857.1428571432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2666666.6666666665</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2191780.8219178081</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2562263.0617271792</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2038585.5825471766</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2129313.159299951</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2178553.2271283418</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2167495.5354070221</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2107401.6062587616</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1984668.2728163747</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2160971.1155537716</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1806744.5381413179</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1957263.8667435402</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2189976.6854849542</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2186197.3194166925</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2185921.8062767428</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2186563.5987674482</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2185807.8547360478</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2186335.7939001704</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2186994.1668870663</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2185552.0286130006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2184129.5319506228</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2183515.9671402653</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2183589.813521313</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2184219.0495025259</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2183649.3700777814</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2183447.3037124905</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2183533.2393740625</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2183842.3042015773</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2184324.5061910511</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2183651.0283621349</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2183102.4892625716</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2182674.3215913842</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2182377.6151773077</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2182239.0909709316</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2181248.5858412408</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2180517.5147251105</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2180120.3669271199</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2179739.1303950497</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2179212.1244115536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wind Offshore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$C$2:$C$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>4285714.2857142864</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4375000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7857142.8571428573</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7333333.333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7534246.5753424661</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8742485.4537113607</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6763872.9482176611</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6890108.5330269597</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7006608.6841633096</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6879928.5341340061</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6598001.2948149387</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6122372.8249609647</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6547865.3267220343</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5367830.7499289308</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5690711.5493601672</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6350107.6987984516</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6315514.6349001275</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6280921.5710018072</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6246328.5071034841</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6211735.443205162</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6177142.3793068416</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6142549.3154085213</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6125598.7140983427</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6108648.112788165</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6091697.5114779873</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6074746.9101678105</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6057796.3088576319</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6040845.7075474523</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6023895.1062372765</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6006944.5049270988</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5989993.903616922</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5973043.3023067433</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5956641.7424416346</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5940240.1825765241</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5923838.6227114126</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5907437.0628463048</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5891035.5029811971</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5874633.9431160856</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5858232.383250976</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5841830.8233858654</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5825429.2635207577</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5809027.703655648</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Solar Utility</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$D$2:$D$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>4285714.2857142864</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4375000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7857142.8571428573</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7333333.333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7534246.5753424661</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8742485.4537113607</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6763872.9482176611</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6890108.5330269597</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7006608.6841633096</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6879928.5341340061</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6598001.2948149387</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6122372.8249609647</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6547865.3267220343</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5367830.7499289308</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5690711.5493601672</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6350107.6987984516</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6315514.6349001275</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6280921.5710018072</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6246328.5071034841</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6211735.443205162</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6177142.3793068416</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6142549.3154085213</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6125598.7140983427</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6108648.112788165</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6091697.5114779873</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6074746.9101678105</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6057796.3088576319</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6040845.7075474523</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6023895.1062372765</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6006944.5049270988</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5989993.903616922</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5973043.3023067433</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5956641.7424416346</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5940240.1825765241</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5923838.6227114126</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5907437.0628463048</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5891035.5029811971</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5874633.9431160856</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5858232.383250976</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5841830.8233858654</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5825429.2635207577</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5809027.703655648</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Solar Residential</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$E$2:$E$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>12142857.142857144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8750000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9285714.2857142854</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7333333.333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6164383.5616438361</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4499974.1023443714</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3365570.3654351705</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3346156.2216665181</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3285776.7222737828</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3107297.5915281116</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2861489.3007644531</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2541074.3810122316</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2700680.1828222945</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2199354.2766102008</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2315366.5213583419</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2513317.2227916443</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2428906.153327588</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2403554.2096749772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2378202.2660223665</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2352850.3223697548</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2327498.378717144</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2302146.4350645333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2291003.9601806761</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2279861.4852968184</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2268719.0104129612</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2257576.5355291036</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2246434.0606452459</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2235291.5857613888</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2224149.110877532</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2213006.6359936744</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2201864.1611098172</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2190721.6862259596</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2185299.7707190993</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2179877.8552122386</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2174455.9397053784</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2169034.0241985177</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2163612.1086916574</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2158190.1931847967</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2152768.277677936</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2147346.3621710753</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2141924.4466642151</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2136502.5311573544</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Solar Commercial</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$F$2:$F$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>12142857.142857144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8750000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8214285.7142857146</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6666666.666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5821917.8082191786</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3697356.8118373798</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2444689.7761720605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2444094.4185143127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2414695.9794198754</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2299035.3843778749</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2133182.2654430955</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1910388.1142932517</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2044117.9803513133</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1676561.1418404141</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1778329.5436801368</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1945811.2421110207</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1896423.4839955471</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1879374.9781967856</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1862326.4723980241</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1845277.9665992628</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1828229.4608005015</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1811180.9550017398</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1799976.6070113999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1788772.2590210601</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1777567.91103072</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1766363.5630403804</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1755159.21505004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1743954.8670597007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1732750.5190693603</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1721546.1710790202</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1710341.8230886804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1699137.4750983405</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1694644.9918499652</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1690152.5086015894</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1685660.025353214</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1681167.5421048377</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1676675.0588564628</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1672182.5756080872</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1667690.0923597119</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1663197.6091113356</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1658705.1258629602</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1654212.6426145846</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Geothermal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$G$2:$G$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>13642857.142857144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11875000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13500000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12533333.333333334</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12808219.178082192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12768785.886043198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10131754.018273406</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10574634.478011573</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10929579.981751563</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10911303.092149975</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10642611.807087498</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10047322.734787792</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10985716.142670738</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9212466.2036820669</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9996663.9646964278</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11196823.76995044</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11177878.213656109</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11158932.657361776</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11139987.101067444</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11121041.544773109</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11102095.98847878</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11083150.432184447</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11064204.875890113</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11045259.319595782</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11026313.763301453</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11007368.207007118</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10988422.650712786</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10969477.094418453</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10950531.53812412</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10931585.981829789</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10912640.425535455</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10893694.869241126</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10874749.312946789</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10855803.756652458</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10836858.200358124</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10817912.644063793</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10798967.087769462</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10780021.531475127</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10761075.975180797</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10742130.418886462</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10723184.862592131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10704239.3062978</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hydropower</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$H$2:$H$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>8571428.5714285728</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7375000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8357142.8571428573</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7733333.333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7876712.3287671236</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7816679.6706785383</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6200866.665418731</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6449686.0572822839</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6641508.1057214309</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6605694.1756682638</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6418864.6652590046</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6036939.6393833039</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6575679.3672355684</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5493156.8687231168</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5937779.3191586966</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6624825.7055230308</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6587769.5408435408</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6550713.3761640508</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6513674.0042639244</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6476634.632363799</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6439611.9679005314</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6402589.3034372628</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6365583.2610683478</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6328577.2186994292</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6291587.7065175474</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6254598.1943356683</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6217625.1335631264</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6205577.7542221257</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6193546.740947959</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6181515.7276737913</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6169501.0016887588</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6157486.2757037254</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6145487.7451005103</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6133489.2144972943</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6121506.8004981978</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6109524.3864991032</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6097558.0103264283</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6085591.6341537535</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6073641.2039001873</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6061690.7736466201</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6049756.2170992699</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6037821.6605519205</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Gas CT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$I$2:$I$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>1331428.5714285716</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1156250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1312857.142857143</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1218666.6666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1246575.3424657534</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1236997.5163916415</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>981530.63800641114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1026145.6670067025</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1049447.0283234799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1046314.0347548591</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1018404.742928851</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>956504.59451360558</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1044429.7362505699</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>874600.78704079648</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>947757.82591356768</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1060091.017687544</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1056676.3924329041</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1045921.0340723629</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1037756.7643083339</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1030226.2756190584</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1025025.9934062324</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1019464.9641803814</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1014471.1204664628</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1010607.7962469212</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1007233.6425665139</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1003802.8187261421</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>999887.8807886953</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>995942.78792259085</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>992613.23614829872</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>988430.74747902469</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>985095.32471934916</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>981196.58541897777</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>977369.7475428374</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>973542.90966669703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>969716.07179055666</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>965889.2339144164</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>962062.39603827591</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>958235.55816213542</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>954408.72028599505</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>950581.88240985456</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>946755.0445337143</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>942928.20665757381</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Gas CC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$J$2:$J$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>1531428.5714285716</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1337500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1527142.8571428573</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1421333.3333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1456164.3835616438</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1446876.4137831663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1148064.9805018601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1200249.7523428539</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1227504.6090839</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1224092.2171545646</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1191689.5244696664</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1120055.2943919974</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1223116.5715321128</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1024329.3178738129</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1110104.2832596698</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1241785.3123203348</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1237923.4490933418</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1226892.3081914966</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1218391.7925879487</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1210510.1561637996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1204904.7294594152</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1198946.6514591</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1193542.6107299221</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1189242.7321831111</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1185420.8419548441</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1181543.4553058054</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1177193.2308405109</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1172813.5357386845</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1169035.1256761681</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1164423.4302027081</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1160639.4147053224</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1156304.8279309575</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1152040.6455781432</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1147776.4632253288</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1143512.2808725147</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1139248.0985197003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1134983.9161668862</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1130719.7338140719</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1126455.5514612577</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1122191.3691084434</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1117927.186755629</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1113663.0044028151</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$K$2:$K$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5237500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5957142.8571428573</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5533333.333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5657534.2465753425</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5620953.8380254218</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4460104.6758245192</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4662836.7065438163</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4768718.7916645827</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4755462.028799885</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4659175.9179018671</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4394864.4165116576</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4801267.1914624032</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4022854.0518219946</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4361566.4324141862</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4881016.5234597381</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4868562.1435967442</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4856113.7288034605</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4843661.1509572743</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4831208.6420168271</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4818760.3773890957</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4806307.8147581285</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4793852.6063723005</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4781403.3461553641</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4768953.4845612803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4756501.424862437</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4744049.3132917853</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4731595.9707541158</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4719145.898262837</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4706693.489657402</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4694243.7653278485</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4681789.0206707008</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4669337.1412619585</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4656885.2618532153</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4644433.3824444721</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4631981.5030357307</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4619529.6236269874</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4607077.7442182442</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4594625.8648095019</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4582173.9854007587</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4569722.1059920164</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4557270.2265832732</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Biopower</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Capex Euro pro MW,+Projection'!$L$2:$L$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>5928571.4285714291</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5175000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5885714.2857142864</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5466666.666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5602739.7260273974</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5586678.2014554059</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4430337.9379837904</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4629030.3623042386</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4734420.3787205629</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4719210.3105535489</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4620292.1310259728</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4356927.3774110693</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4758440.0109386025</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3985806.4985442399</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4320131.5156005258</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4833219.8822564706</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4819457.5192554342</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4805700.4465125445</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4791939.8150351653</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4778178.8376851957</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4764422.1242872253</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4750661.257934656</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4736897.9548112601</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4723140.1733581005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4709381.9652043423</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4695621.6677274574</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4681861.18511225</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4668099.6367079858</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4654341.1222377894</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4640580.4567950061</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4626822.3372496283</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4613059.4141675811</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4599299.2297908738</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4585539.0454141656</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4571778.8610374583</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4558018.6766607501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4544258.4922840437</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4530498.3079073373</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4516738.1235306291</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4502977.9391539218</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4489217.7547772136</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4475457.5704005063</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3673-43E9-9534-AC62E8BF5FB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="914740207"/>
-        <c:axId val="914722927"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="914740207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="914722927"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="914722927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="914740207"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wind Onshore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Capex!$B$2:$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2250</c:v>
                 </c:pt>
@@ -3811,90 +1691,19 @@
                 <c:pt idx="21">
                   <c:v>1793.3352168473943</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1792.1526634626605</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1790.9862161995106</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1790.4830930550174</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1790.5436470874765</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1791.0596205920713</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1790.5924834637806</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1790.426789044242</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1790.4972562867313</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1790.7506894452933</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1791.1460950766618</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1790.5938432569503</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1790.1440411953085</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1789.7929437049349</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1789.5496444453922</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1789.4360545961638</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1788.6238403898174</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1788.0243620745905</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1787.698700880238</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1787.3860869239409</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1786.953942017474</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{00000000-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Wind Offshore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3909,10 +1718,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$C$2:$C$43</c:f>
+              <c:f>Capex!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>3000</c:v>
                 </c:pt>
@@ -3979,90 +1788,19 @@
                 <c:pt idx="21">
                   <c:v>5036.8904386349868</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>5022.9909455606403</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5009.0914524862956</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4995.191959411949</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4981.2924663376043</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4967.3929732632578</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4953.4934801889112</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4939.5939871145665</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4925.6944940402209</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4911.7950009658753</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4897.8955078915296</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4884.4462288021396</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4870.9969497127495</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4857.5476706233585</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4844.0983915339702</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4830.6491124445811</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4817.1998333551901</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4803.7505542658</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4790.3012751764099</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4776.8519960870208</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4763.4027169976307</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{00000001-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Solar Ulitity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4077,10 +1815,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$D$2:$D$43</c:f>
+              <c:f>Capex!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>5750</c:v>
                 </c:pt>
@@ -4147,90 +1885,19 @@
                 <c:pt idx="21">
                   <c:v>1233.1649098535079</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1224.6757717107703</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1216.1866335680327</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1207.6974954252953</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1199.2083572825575</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1190.7192191398199</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1182.2300809970825</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1173.7409428543449</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1165.2518047116073</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1156.7626665688697</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1148.2735284261321</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1141.0149607822045</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1133.7563931382765</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1126.4978254943487</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1119.2392578504209</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1111.9806902064931</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1104.7221225625653</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1097.4635549186376</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1090.2049872747095</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1082.9464196307817</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1075.687851986854</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{00000002-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Solar Residential</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4245,10 +1912,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$E$2:$E$43</c:f>
+              <c:f>Capex!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>8500</c:v>
                 </c:pt>
@@ -4315,90 +1982,19 @@
                 <c:pt idx="21">
                   <c:v>1887.7600767529173</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1878.6232473481541</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1869.486417943391</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1860.349588538628</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1851.2127591338649</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1842.0759297291017</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1832.9391003243388</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1823.8022709195761</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1814.665441514813</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1805.5286121100498</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1796.3917827052867</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1791.9458119896613</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1787.4998412740356</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1783.0538705584102</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1778.6078998427845</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1774.1619291271588</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1769.7159584115332</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1765.2699876959075</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1760.8240169802818</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1756.3780462646562</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1751.9320755490305</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{00000003-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Solar Commercial</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4413,10 +2009,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$F$2:$F$43</c:f>
+              <c:f>Capex!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>8500</c:v>
                 </c:pt>
@@ -4483,90 +2079,19 @@
                 <c:pt idx="21">
                   <c:v>1485.1683831014266</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1475.9808177493478</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1466.7932523972693</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1457.6056870451903</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1448.4181216931117</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1439.2305563410328</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1430.0429909889544</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1420.8554256368755</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1411.6678602847965</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1402.4802949327179</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1393.2927295806392</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1389.6088933169713</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1385.9250570533031</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1382.2412207896352</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1378.5573845259669</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1374.8735482622994</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1371.1897119986315</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1367.5058757349636</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1363.8220394712953</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1360.1382032076274</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1356.4543669439595</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{00000004-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Geothermal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4581,10 +2106,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$G$2:$G$43</c:f>
+              <c:f>Capex!$G$2:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>9550</c:v>
                 </c:pt>
@@ -4651,90 +2176,19 @@
                 <c:pt idx="21">
                   <c:v>9088.1833543912453</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>9072.6479982298933</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9057.1126420685414</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9041.5772859071894</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9026.0419297458357</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9010.5065735844837</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8994.9712174231317</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8979.435861261778</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8963.900505100426</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8948.3651489390722</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8932.8297927777221</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8917.2944366163665</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8901.7590804550146</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8886.2237242936626</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8870.6883681323106</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8855.1530119709569</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8839.6176558096031</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8824.082299648253</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8808.5469434868992</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8793.0115873255472</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8777.4762311641953</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{00000005-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hydropower</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4751,10 +2205,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$H$2:$H$43</c:f>
+              <c:f>Capex!$H$2:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>6000</c:v>
                 </c:pt>
@@ -4821,90 +2275,19 @@
                 <c:pt idx="21">
                   <c:v>5250.1232288185556</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>5219.7782740760449</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5189.4333193335315</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5159.101919344389</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5128.7705193552474</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5098.4526095217634</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5088.5737584621429</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5078.7083275773266</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5068.8428966925085</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5058.9908213847821</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5049.1387460770538</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5039.2999509824176</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5029.4611558877805</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5019.635576408522</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5009.8099969292643</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4999.997568467671</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4990.1851400060777</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4980.3857871981536</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4970.5864343902285</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4960.800098021401</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4951.0137616525744</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{00000006-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Gas CT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4921,10 +2304,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$I$2:$I$43</c:f>
+              <c:f>Capex!$I$2:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>932</c:v>
                 </c:pt>
@@ -4991,90 +2374,19 @@
                 <c:pt idx="21">
                   <c:v>835.96127062791277</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>831.86631878249943</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>828.69839292247536</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>825.9315869045414</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>823.1183113554365</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>819.90806224673008</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>816.67308609652446</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>813.94285364160487</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>810.51321293280023</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>807.77816626986623</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>804.58120004356181</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>801.44319298512664</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>798.30518592669148</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>795.16717886825643</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>792.02917180982138</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>788.8911647513861</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>785.75315769295105</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>782.61515063451589</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>779.47714357608072</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>776.33913651764567</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>773.20112945921039</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{00000007-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Gas CC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5091,10 +2403,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$J$2:$J$43</c:f>
+              <c:f>Capex!$J$2:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1072</c:v>
                 </c:pt>
@@ -5161,90 +2473,19 @@
                 <c:pt idx="21">
                   <c:v>983.13625419646189</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>978.70494079853609</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>975.17904039015104</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>972.04509040297205</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>968.86563335076028</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>965.29844928921887</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>961.70709930572127</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>958.60880305445778</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>954.82721276622067</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>951.72432005836424</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>948.16995890338512</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>944.6733293740773</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>941.17669984476959</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>937.6800703154621</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>934.18344078615428</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>930.68681125684668</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>927.19018172753897</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>923.69355219823126</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>920.19692266892355</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>916.70029313961584</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>913.20366361030835</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{00000008-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coal </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5261,10 +2502,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$K$2:$K$43</c:f>
+              <c:f>Capex!$K$2:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>4200</c:v>
                 </c:pt>
@@ -5331,90 +2572,19 @@
                 <c:pt idx="21">
                   <c:v>3941.172408101665</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>3930.9591372252867</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3920.7507438473986</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3910.5418573402499</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3900.3311683871984</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3890.1204368992635</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3879.9086960183745</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3869.6996365755263</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3859.4886615190694</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3849.2798875688354</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3839.0669969499745</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3828.8564558348057</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3818.6459147196365</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3808.4353736044673</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3798.2248324892985</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3788.0142913741292</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3777.80375025896</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3767.5932091437912</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3757.382668028622</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3747.1721269134528</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3736.961585798284</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{00000009-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Biopower</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5431,10 +2601,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$L$2:$L$43</c:f>
+              <c:f>Capex!$L$2:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>4150</c:v>
                 </c:pt>
@@ -5501,90 +2671,19 @@
                 <c:pt idx="21">
                   <c:v>3895.5422315064175</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>3884.256322945233</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3872.9749421536421</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3861.6932114675606</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3850.4097675365142</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3839.1261717920447</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3827.8417021005484</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3816.5597202349873</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3805.2759745719045</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3793.9943165446948</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3782.7087196174161</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3771.4253684285163</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3760.1420172396156</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3748.8586660507158</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3737.5753148618151</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3726.2919636729152</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3715.0086124840163</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3703.7252612951156</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3692.4419101062158</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3681.1585589173151</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3669.8752077284153</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-DBED-43D8-B708-89A5634143C5}"/>
+              <c16:uniqueId val="{0000000A-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
           <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Capex!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nuclear</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5601,10 +2700,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capex!$M$7:$M$43</c:f>
+              <c:f>Capex!$M$2:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>6368.6447459658148</c:v>
                 </c:pt>
@@ -5633,88 +2732,43 @@
                   <c:v>6368.6447459658148</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>6368.6447459658148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6368.6447459658148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6368.6447459658148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6368.6447459658148</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6368.6447459658148</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>6334.8245519338707</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>6301.0114040099797</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>6267.1921045495274</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>6233.378302199334</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>6199.5614470891378</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>6165.7432530308442</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>6131.930446911605</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>6098.1123232795744</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6064.2914122121947</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6030.477667391383</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5996.6623658372419</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5962.845764888657</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5929.0283894642025</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5895.2099401363439</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5861.3947410969422</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5827.5771119136598</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5793.7631518273611</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5759.942105278682</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5726.1250834785924</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5692.3080616785028</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5658.4910398784132</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5624.6740180783245</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5590.8569962782349</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5557.0399744781453</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5523.2229526780557</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5489.4059308779661</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5455.5889090778765</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5421.7718872777868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5722,7 +2776,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BAAB-49E6-952E-36B33CBF362D}"/>
+              <c16:uniqueId val="{0000000B-5B12-4E33-A14B-87ABE6F3CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5735,11 +2789,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="914730127"/>
-        <c:axId val="914741647"/>
+        <c:axId val="575212976"/>
+        <c:axId val="572808352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="914730127"/>
+        <c:axId val="575212976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5781,7 +2835,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914741647"/>
+        <c:crossAx val="572808352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5789,7 +2843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="914741647"/>
+        <c:axId val="572808352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5840,7 +2894,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914730127"/>
+        <c:crossAx val="575212976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5928,46 +2982,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6523,581 +3537,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52172CE3-0766-4390-B6A3-7A9B5A0462DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E88E4DE-D74F-9A3C-EC88-056AC84C47AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2310A18-4375-1687-1025-C7D1560CA514}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7109,7 +3569,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7418,7 +3878,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7493,8 +3953,8 @@
         <v>4285714.2857142864</v>
       </c>
       <c r="D2" s="1">
-        <f>Capex!C2*1000/'Capex Euro pro MW,+Projection'!N2</f>
-        <v>4285714.2857142864</v>
+        <f>Capex!D2*1000/'Capex Euro pro MW,+Projection'!N2</f>
+        <v>8214285.7142857146</v>
       </c>
       <c r="E2" s="1">
         <f>Capex!E2*1000/'Capex Euro pro MW,+Projection'!N2</f>
@@ -7549,8 +4009,8 @@
         <v>4375000</v>
       </c>
       <c r="D3" s="1">
-        <f>Capex!C3*1000/'Capex Euro pro MW,+Projection'!N3</f>
-        <v>4375000</v>
+        <f>Capex!D3*1000/'Capex Euro pro MW,+Projection'!N3</f>
+        <v>5312500</v>
       </c>
       <c r="E3" s="1">
         <f>Capex!E3*1000/'Capex Euro pro MW,+Projection'!N3</f>
@@ -7605,8 +4065,8 @@
         <v>7857142.8571428573</v>
       </c>
       <c r="D4" s="1">
-        <f>Capex!C4*1000/'Capex Euro pro MW,+Projection'!N4</f>
-        <v>7857142.8571428573</v>
+        <f>Capex!D4*1000/'Capex Euro pro MW,+Projection'!N4</f>
+        <v>5000000</v>
       </c>
       <c r="E4" s="1">
         <f>Capex!E4*1000/'Capex Euro pro MW,+Projection'!N4</f>
@@ -7661,8 +4121,8 @@
         <v>7333333.333333333</v>
       </c>
       <c r="D5" s="1">
-        <f>Capex!C5*1000/'Capex Euro pro MW,+Projection'!N5</f>
-        <v>7333333.333333333</v>
+        <f>Capex!D5*1000/'Capex Euro pro MW,+Projection'!N5</f>
+        <v>4000000</v>
       </c>
       <c r="E5" s="1">
         <f>Capex!E5*1000/'Capex Euro pro MW,+Projection'!N5</f>
@@ -7717,8 +4177,8 @@
         <v>7534246.5753424661</v>
       </c>
       <c r="D6" s="1">
-        <f>Capex!C6*1000/'Capex Euro pro MW,+Projection'!N6</f>
-        <v>7534246.5753424661</v>
+        <f>Capex!D6*1000/'Capex Euro pro MW,+Projection'!N6</f>
+        <v>3767123.2876712331</v>
       </c>
       <c r="E6" s="1">
         <f>Capex!E6*1000/'Capex Euro pro MW,+Projection'!N6</f>
@@ -7773,8 +4233,8 @@
         <v>8742485.4537113607</v>
       </c>
       <c r="D7" s="1">
-        <f>Capex!C7*1000/'Capex Euro pro MW,+Projection'!N7</f>
-        <v>8742485.4537113607</v>
+        <f>Capex!D7*1000/'Capex Euro pro MW,+Projection'!N7</f>
+        <v>2772881.0063978997</v>
       </c>
       <c r="E7" s="1">
         <f>Capex!E7*1000/'Capex Euro pro MW,+Projection'!N7</f>
@@ -7829,8 +4289,8 @@
         <v>6763872.9482176611</v>
       </c>
       <c r="D8" s="1">
-        <f>Capex!C8*1000/'Capex Euro pro MW,+Projection'!N8</f>
-        <v>6763872.9482176611</v>
+        <f>Capex!D8*1000/'Capex Euro pro MW,+Projection'!N8</f>
+        <v>2111322.9885122348</v>
       </c>
       <c r="E8" s="1">
         <f>Capex!E8*1000/'Capex Euro pro MW,+Projection'!N8</f>
@@ -7885,8 +4345,8 @@
         <v>6890108.5330269597</v>
       </c>
       <c r="D9" s="1">
-        <f>Capex!C9*1000/'Capex Euro pro MW,+Projection'!N9</f>
-        <v>6890108.5330269597</v>
+        <f>Capex!D9*1000/'Capex Euro pro MW,+Projection'!N9</f>
+        <v>2108715.4280124721</v>
       </c>
       <c r="E9" s="1">
         <f>Capex!E9*1000/'Capex Euro pro MW,+Projection'!N9</f>
@@ -7941,8 +4401,8 @@
         <v>7006608.6841633096</v>
       </c>
       <c r="D10" s="1">
-        <f>Capex!C10*1000/'Capex Euro pro MW,+Projection'!N10</f>
-        <v>7006608.6841633096</v>
+        <f>Capex!D10*1000/'Capex Euro pro MW,+Projection'!N10</f>
+        <v>2081084.7104361109</v>
       </c>
       <c r="E10" s="1">
         <f>Capex!E10*1000/'Capex Euro pro MW,+Projection'!N10</f>
@@ -7997,8 +4457,8 @@
         <v>6879928.5341340061</v>
       </c>
       <c r="D11" s="1">
-        <f>Capex!C11*1000/'Capex Euro pro MW,+Projection'!N11</f>
-        <v>6879928.5341340061</v>
+        <f>Capex!D11*1000/'Capex Euro pro MW,+Projection'!N11</f>
+        <v>1979028.7424593095</v>
       </c>
       <c r="E11" s="1">
         <f>Capex!E11*1000/'Capex Euro pro MW,+Projection'!N11</f>
@@ -8053,8 +4513,8 @@
         <v>6598001.2948149387</v>
       </c>
       <c r="D12" s="1">
-        <f>Capex!C12*1000/'Capex Euro pro MW,+Projection'!N12</f>
-        <v>6598001.2948149387</v>
+        <f>Capex!D12*1000/'Capex Euro pro MW,+Projection'!N12</f>
+        <v>1833823.9750691173</v>
       </c>
       <c r="E12" s="1">
         <f>Capex!E12*1000/'Capex Euro pro MW,+Projection'!N12</f>
@@ -8109,8 +4569,8 @@
         <v>6122372.8249609647</v>
       </c>
       <c r="D13" s="1">
-        <f>Capex!C13*1000/'Capex Euro pro MW,+Projection'!N13</f>
-        <v>6122372.8249609647</v>
+        <f>Capex!D13*1000/'Capex Euro pro MW,+Projection'!N13</f>
+        <v>1639868.788619403</v>
       </c>
       <c r="E13" s="1">
         <f>Capex!E13*1000/'Capex Euro pro MW,+Projection'!N13</f>
@@ -8165,8 +4625,8 @@
         <v>6547865.3267220343</v>
       </c>
       <c r="D14" s="1">
-        <f>Capex!C14*1000/'Capex Euro pro MW,+Projection'!N14</f>
-        <v>6547865.3267220343</v>
+        <f>Capex!D14*1000/'Capex Euro pro MW,+Projection'!N14</f>
+        <v>1746661.1410450132</v>
       </c>
       <c r="E14" s="1">
         <f>Capex!E14*1000/'Capex Euro pro MW,+Projection'!N14</f>
@@ -8221,8 +4681,8 @@
         <v>5367830.7499289308</v>
       </c>
       <c r="D15" s="1">
-        <f>Capex!C15*1000/'Capex Euro pro MW,+Projection'!N15</f>
-        <v>5367830.7499289308</v>
+        <f>Capex!D15*1000/'Capex Euro pro MW,+Projection'!N15</f>
+        <v>1425711.4314257714</v>
       </c>
       <c r="E15" s="1">
         <f>Capex!E15*1000/'Capex Euro pro MW,+Projection'!N15</f>
@@ -8277,8 +4737,8 @@
         <v>5690711.5493601672</v>
       </c>
       <c r="D16" s="1">
-        <f>Capex!C16*1000/'Capex Euro pro MW,+Projection'!N16</f>
-        <v>5690711.5493601672</v>
+        <f>Capex!D16*1000/'Capex Euro pro MW,+Projection'!N16</f>
+        <v>1504595.1134497083</v>
       </c>
       <c r="E16" s="1">
         <f>Capex!E16*1000/'Capex Euro pro MW,+Projection'!N16</f>
@@ -8333,8 +4793,8 @@
         <v>6350107.6987984516</v>
       </c>
       <c r="D17" s="1">
-        <f>Capex!C17*1000/'Capex Euro pro MW,+Projection'!N17</f>
-        <v>6350107.6987984516</v>
+        <f>Capex!D17*1000/'Capex Euro pro MW,+Projection'!N17</f>
+        <v>1637492.1674654779</v>
       </c>
       <c r="E17" s="1">
         <f>Capex!E17*1000/'Capex Euro pro MW,+Projection'!N17</f>
@@ -8389,8 +4849,8 @@
         <v>6315514.6349001275</v>
       </c>
       <c r="D18" s="1">
-        <f>Capex!C18*1000/'Capex Euro pro MW,+Projection'!N18</f>
-        <v>6315514.6349001275</v>
+        <f>Capex!D18*1000/'Capex Euro pro MW,+Projection'!N18</f>
+        <v>1586902.0125239661</v>
       </c>
       <c r="E18" s="1">
         <f>Capex!E18*1000/'Capex Euro pro MW,+Projection'!N18</f>
@@ -8445,8 +4905,8 @@
         <v>6280921.5710018072</v>
       </c>
       <c r="D19" s="1">
-        <f>Capex!C19*1000/'Capex Euro pro MW,+Projection'!N19</f>
-        <v>6280921.5710018072</v>
+        <f>Capex!D19*1000/'Capex Euro pro MW,+Projection'!N19</f>
+        <v>1570293.5392517359</v>
       </c>
       <c r="E19" s="1">
         <f>Capex!E19*1000/'Capex Euro pro MW,+Projection'!N19</f>
@@ -8501,8 +4961,8 @@
         <v>6246328.5071034841</v>
       </c>
       <c r="D20" s="1">
-        <f>Capex!C20*1000/'Capex Euro pro MW,+Projection'!N20</f>
-        <v>6246328.5071034841</v>
+        <f>Capex!D20*1000/'Capex Euro pro MW,+Projection'!N20</f>
+        <v>1553685.0659795059</v>
       </c>
       <c r="E20" s="1">
         <f>Capex!E20*1000/'Capex Euro pro MW,+Projection'!N20</f>
@@ -8557,8 +5017,8 @@
         <v>6211735.443205162</v>
       </c>
       <c r="D21" s="1">
-        <f>Capex!C21*1000/'Capex Euro pro MW,+Projection'!N21</f>
-        <v>6211735.443205162</v>
+        <f>Capex!D21*1000/'Capex Euro pro MW,+Projection'!N21</f>
+        <v>1537076.5927072754</v>
       </c>
       <c r="E21" s="1">
         <f>Capex!E21*1000/'Capex Euro pro MW,+Projection'!N21</f>
@@ -8613,8 +5073,8 @@
         <v>6177142.3793068416</v>
       </c>
       <c r="D22" s="1">
-        <f>Capex!C22*1000/'Capex Euro pro MW,+Projection'!N22</f>
-        <v>6177142.3793068416</v>
+        <f>Capex!D22*1000/'Capex Euro pro MW,+Projection'!N22</f>
+        <v>1520468.1194350447</v>
       </c>
       <c r="E22" s="1">
         <f>Capex!E22*1000/'Capex Euro pro MW,+Projection'!N22</f>
@@ -8669,8 +5129,8 @@
         <v>6142549.3154085213</v>
       </c>
       <c r="D23" s="1">
-        <f>Capex!C23*1000/'Capex Euro pro MW,+Projection'!N23</f>
-        <v>6142549.3154085213</v>
+        <f>Capex!D23*1000/'Capex Euro pro MW,+Projection'!N23</f>
+        <v>1503859.6461628145</v>
       </c>
       <c r="E23" s="1">
         <f>Capex!E23*1000/'Capex Euro pro MW,+Projection'!N23</f>
@@ -8725,8 +5185,8 @@
         <v>6125598.7140983427</v>
       </c>
       <c r="D24" s="1">
-        <f>Capex!C24*1000/'Capex Euro pro MW,+Projection'!N24</f>
-        <v>6125598.7140983427</v>
+        <f>Capex!D24*1000/'Capex Euro pro MW,+Projection'!N24</f>
+        <v>1493507.0386716712</v>
       </c>
       <c r="E24" s="1">
         <f>Capex!E24*1000/'Capex Euro pro MW,+Projection'!N24</f>
@@ -8781,8 +5241,8 @@
         <v>6108648.112788165</v>
       </c>
       <c r="D25" s="1">
-        <f>Capex!C25*1000/'Capex Euro pro MW,+Projection'!N25</f>
-        <v>6108648.112788165</v>
+        <f>Capex!D25*1000/'Capex Euro pro MW,+Projection'!N25</f>
+        <v>1483154.4311805277</v>
       </c>
       <c r="E25" s="1">
         <f>Capex!E25*1000/'Capex Euro pro MW,+Projection'!N25</f>
@@ -8837,8 +5297,8 @@
         <v>6091697.5114779873</v>
       </c>
       <c r="D26" s="1">
-        <f>Capex!C26*1000/'Capex Euro pro MW,+Projection'!N26</f>
-        <v>6091697.5114779873</v>
+        <f>Capex!D26*1000/'Capex Euro pro MW,+Projection'!N26</f>
+        <v>1472801.8236893846</v>
       </c>
       <c r="E26" s="1">
         <f>Capex!E26*1000/'Capex Euro pro MW,+Projection'!N26</f>
@@ -8893,8 +5353,8 @@
         <v>6074746.9101678105</v>
       </c>
       <c r="D27" s="1">
-        <f>Capex!C27*1000/'Capex Euro pro MW,+Projection'!N27</f>
-        <v>6074746.9101678105</v>
+        <f>Capex!D27*1000/'Capex Euro pro MW,+Projection'!N27</f>
+        <v>1462449.2161982409</v>
       </c>
       <c r="E27" s="1">
         <f>Capex!E27*1000/'Capex Euro pro MW,+Projection'!N27</f>
@@ -8949,8 +5409,8 @@
         <v>6057796.3088576319</v>
       </c>
       <c r="D28" s="1">
-        <f>Capex!C28*1000/'Capex Euro pro MW,+Projection'!N28</f>
-        <v>6057796.3088576319</v>
+        <f>Capex!D28*1000/'Capex Euro pro MW,+Projection'!N28</f>
+        <v>1452096.6087070976</v>
       </c>
       <c r="E28" s="1">
         <f>Capex!E28*1000/'Capex Euro pro MW,+Projection'!N28</f>
@@ -9005,8 +5465,8 @@
         <v>6040845.7075474523</v>
       </c>
       <c r="D29" s="1">
-        <f>Capex!C29*1000/'Capex Euro pro MW,+Projection'!N29</f>
-        <v>6040845.7075474523</v>
+        <f>Capex!D29*1000/'Capex Euro pro MW,+Projection'!N29</f>
+        <v>1441744.0012159543</v>
       </c>
       <c r="E29" s="1">
         <f>Capex!E29*1000/'Capex Euro pro MW,+Projection'!N29</f>
@@ -9061,8 +5521,8 @@
         <v>6023895.1062372765</v>
       </c>
       <c r="D30" s="1">
-        <f>Capex!C30*1000/'Capex Euro pro MW,+Projection'!N30</f>
-        <v>6023895.1062372765</v>
+        <f>Capex!D30*1000/'Capex Euro pro MW,+Projection'!N30</f>
+        <v>1431391.3937248108</v>
       </c>
       <c r="E30" s="1">
         <f>Capex!E30*1000/'Capex Euro pro MW,+Projection'!N30</f>
@@ -9117,8 +5577,8 @@
         <v>6006944.5049270988</v>
       </c>
       <c r="D31" s="1">
-        <f>Capex!C31*1000/'Capex Euro pro MW,+Projection'!N31</f>
-        <v>6006944.5049270988</v>
+        <f>Capex!D31*1000/'Capex Euro pro MW,+Projection'!N31</f>
+        <v>1421038.7862336675</v>
       </c>
       <c r="E31" s="1">
         <f>Capex!E31*1000/'Capex Euro pro MW,+Projection'!N31</f>
@@ -9173,8 +5633,8 @@
         <v>5989993.903616922</v>
       </c>
       <c r="D32" s="1">
-        <f>Capex!C32*1000/'Capex Euro pro MW,+Projection'!N32</f>
-        <v>5989993.903616922</v>
+        <f>Capex!D32*1000/'Capex Euro pro MW,+Projection'!N32</f>
+        <v>1410686.1787425242</v>
       </c>
       <c r="E32" s="1">
         <f>Capex!E32*1000/'Capex Euro pro MW,+Projection'!N32</f>
@@ -9229,8 +5689,8 @@
         <v>5973043.3023067433</v>
       </c>
       <c r="D33" s="1">
-        <f>Capex!C33*1000/'Capex Euro pro MW,+Projection'!N33</f>
-        <v>5973043.3023067433</v>
+        <f>Capex!D33*1000/'Capex Euro pro MW,+Projection'!N33</f>
+        <v>1400333.5712513807</v>
       </c>
       <c r="E33" s="1">
         <f>Capex!E33*1000/'Capex Euro pro MW,+Projection'!N33</f>
@@ -9285,8 +5745,8 @@
         <v>5956641.7424416346</v>
       </c>
       <c r="D34" s="1">
-        <f>Capex!C34*1000/'Capex Euro pro MW,+Projection'!N34</f>
-        <v>5956641.7424416346</v>
+        <f>Capex!D34*1000/'Capex Euro pro MW,+Projection'!N34</f>
+        <v>1391481.6594904934</v>
       </c>
       <c r="E34" s="1">
         <f>Capex!E34*1000/'Capex Euro pro MW,+Projection'!N34</f>
@@ -9341,8 +5801,8 @@
         <v>5940240.1825765241</v>
       </c>
       <c r="D35" s="1">
-        <f>Capex!C35*1000/'Capex Euro pro MW,+Projection'!N35</f>
-        <v>5940240.1825765241</v>
+        <f>Capex!D35*1000/'Capex Euro pro MW,+Projection'!N35</f>
+        <v>1382629.7477296055</v>
       </c>
       <c r="E35" s="1">
         <f>Capex!E35*1000/'Capex Euro pro MW,+Projection'!N35</f>
@@ -9397,8 +5857,8 @@
         <v>5923838.6227114126</v>
       </c>
       <c r="D36" s="1">
-        <f>Capex!C36*1000/'Capex Euro pro MW,+Projection'!N36</f>
-        <v>5923838.6227114126</v>
+        <f>Capex!D36*1000/'Capex Euro pro MW,+Projection'!N36</f>
+        <v>1373777.8359687182</v>
       </c>
       <c r="E36" s="1">
         <f>Capex!E36*1000/'Capex Euro pro MW,+Projection'!N36</f>
@@ -9453,8 +5913,8 @@
         <v>5907437.0628463048</v>
       </c>
       <c r="D37" s="1">
-        <f>Capex!C37*1000/'Capex Euro pro MW,+Projection'!N37</f>
-        <v>5907437.0628463048</v>
+        <f>Capex!D37*1000/'Capex Euro pro MW,+Projection'!N37</f>
+        <v>1364925.9242078303</v>
       </c>
       <c r="E37" s="1">
         <f>Capex!E37*1000/'Capex Euro pro MW,+Projection'!N37</f>
@@ -9509,8 +5969,8 @@
         <v>5891035.5029811971</v>
       </c>
       <c r="D38" s="1">
-        <f>Capex!C38*1000/'Capex Euro pro MW,+Projection'!N38</f>
-        <v>5891035.5029811971</v>
+        <f>Capex!D38*1000/'Capex Euro pro MW,+Projection'!N38</f>
+        <v>1356074.012446943</v>
       </c>
       <c r="E38" s="1">
         <f>Capex!E38*1000/'Capex Euro pro MW,+Projection'!N38</f>
@@ -9565,8 +6025,8 @@
         <v>5874633.9431160856</v>
       </c>
       <c r="D39" s="1">
-        <f>Capex!C39*1000/'Capex Euro pro MW,+Projection'!N39</f>
-        <v>5874633.9431160856</v>
+        <f>Capex!D39*1000/'Capex Euro pro MW,+Projection'!N39</f>
+        <v>1347222.1006860554</v>
       </c>
       <c r="E39" s="1">
         <f>Capex!E39*1000/'Capex Euro pro MW,+Projection'!N39</f>
@@ -9621,8 +6081,8 @@
         <v>5858232.383250976</v>
       </c>
       <c r="D40" s="1">
-        <f>Capex!C40*1000/'Capex Euro pro MW,+Projection'!N40</f>
-        <v>5858232.383250976</v>
+        <f>Capex!D40*1000/'Capex Euro pro MW,+Projection'!N40</f>
+        <v>1338370.1889251678</v>
       </c>
       <c r="E40" s="1">
         <f>Capex!E40*1000/'Capex Euro pro MW,+Projection'!N40</f>
@@ -9677,8 +6137,8 @@
         <v>5841830.8233858654</v>
       </c>
       <c r="D41" s="1">
-        <f>Capex!C41*1000/'Capex Euro pro MW,+Projection'!N41</f>
-        <v>5841830.8233858654</v>
+        <f>Capex!D41*1000/'Capex Euro pro MW,+Projection'!N41</f>
+        <v>1329518.2771642802</v>
       </c>
       <c r="E41" s="1">
         <f>Capex!E41*1000/'Capex Euro pro MW,+Projection'!N41</f>
@@ -9733,8 +6193,8 @@
         <v>5825429.2635207577</v>
       </c>
       <c r="D42" s="1">
-        <f>Capex!C42*1000/'Capex Euro pro MW,+Projection'!N42</f>
-        <v>5825429.2635207577</v>
+        <f>Capex!D42*1000/'Capex Euro pro MW,+Projection'!N42</f>
+        <v>1320666.3654033924</v>
       </c>
       <c r="E42" s="1">
         <f>Capex!E42*1000/'Capex Euro pro MW,+Projection'!N42</f>
@@ -9789,8 +6249,8 @@
         <v>5809027.703655648</v>
       </c>
       <c r="D43" s="1">
-        <f>Capex!C43*1000/'Capex Euro pro MW,+Projection'!N43</f>
-        <v>5809027.703655648</v>
+        <f>Capex!D43*1000/'Capex Euro pro MW,+Projection'!N43</f>
+        <v>1311814.4536425048</v>
       </c>
       <c r="E43" s="1">
         <f>Capex!E43*1000/'Capex Euro pro MW,+Projection'!N43</f>
@@ -11689,7 +8149,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AL2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13996,8 +10456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2B2473-9770-4B08-B0D3-691C4E9F1DF9}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15787,7 +12247,7 @@
   <dimension ref="A1:AL45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23803,7 +20263,7 @@
   <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AL2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25127,6 +21587,1334 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1865600-602D-464C-9FEE-DD8BE476CEED}">
+  <dimension ref="A1:AL11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AL2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="B1">
+        <v>2014</v>
+      </c>
+      <c r="C1">
+        <v>2015</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1">
+        <v>2017</v>
+      </c>
+      <c r="F1">
+        <v>2018</v>
+      </c>
+      <c r="G1">
+        <v>2019</v>
+      </c>
+      <c r="H1">
+        <v>2020</v>
+      </c>
+      <c r="I1">
+        <v>2021</v>
+      </c>
+      <c r="J1">
+        <v>2022</v>
+      </c>
+      <c r="K1">
+        <v>2023</v>
+      </c>
+      <c r="L1">
+        <v>2024</v>
+      </c>
+      <c r="M1">
+        <v>2025</v>
+      </c>
+      <c r="N1">
+        <v>2026</v>
+      </c>
+      <c r="O1">
+        <v>2027</v>
+      </c>
+      <c r="P1">
+        <v>2028</v>
+      </c>
+      <c r="Q1">
+        <v>2029</v>
+      </c>
+      <c r="R1">
+        <v>2030</v>
+      </c>
+      <c r="S1">
+        <v>2031</v>
+      </c>
+      <c r="T1">
+        <v>2032</v>
+      </c>
+      <c r="U1">
+        <v>2033</v>
+      </c>
+      <c r="V1">
+        <v>2034</v>
+      </c>
+      <c r="W1">
+        <v>2035</v>
+      </c>
+      <c r="X1">
+        <v>2036</v>
+      </c>
+      <c r="Y1">
+        <v>2037</v>
+      </c>
+      <c r="Z1">
+        <v>2038</v>
+      </c>
+      <c r="AA1">
+        <v>2039</v>
+      </c>
+      <c r="AB1">
+        <v>2040</v>
+      </c>
+      <c r="AC1">
+        <v>2041</v>
+      </c>
+      <c r="AD1">
+        <v>2042</v>
+      </c>
+      <c r="AE1">
+        <v>2043</v>
+      </c>
+      <c r="AF1">
+        <v>2044</v>
+      </c>
+      <c r="AG1">
+        <v>2045</v>
+      </c>
+      <c r="AH1">
+        <v>2046</v>
+      </c>
+      <c r="AI1">
+        <v>2047</v>
+      </c>
+      <c r="AJ1">
+        <v>2048</v>
+      </c>
+      <c r="AK1">
+        <v>2049</v>
+      </c>
+      <c r="AL1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(B3:B11)</f>
+        <v>2699.0704726412873</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:AL2" si="0">AVERAGE(C3:C11)</f>
+        <v>2249.1145940782958</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>2150.803088292595</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>2052.4915825068942</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>1954.1800767211935</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>1855.8685709354929</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>1757.5570651497915</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>1717.059103495103</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>1676.5611418404142</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>1636.063180185726</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>1595.5652185310371</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>1555.0672568763484</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>1541.087482121364</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>1527.1077073663796</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>1513.1279326113954</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>1499.148157856411</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>1485.1683831014266</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>1475.9808177493478</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>1466.7932523972693</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>1457.6056870451903</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>1448.4181216931117</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>1439.2305563410328</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>1430.0429909889544</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>1420.8554256368755</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>1411.6678602847965</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>1402.4802949327179</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>1393.2927295806392</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>1389.6088933169713</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>1385.9250570533031</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>1382.2412207896352</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>1378.5573845259669</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>1374.8735482622994</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>1371.1897119986315</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>1367.5058757349636</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>1363.8220394712953</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>1360.1382032076274</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>1356.4543669439595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>2699.0704726412869</v>
+      </c>
+      <c r="C3">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="D3">
+        <v>2034.1634520312932</v>
+      </c>
+      <c r="E3">
+        <v>1819.2123099842902</v>
+      </c>
+      <c r="F3">
+        <v>1604.2611679372872</v>
+      </c>
+      <c r="G3">
+        <v>1389.3100258902841</v>
+      </c>
+      <c r="H3">
+        <v>1174.3588838432811</v>
+      </c>
+      <c r="I3">
+        <v>1137.1140878078711</v>
+      </c>
+      <c r="J3">
+        <v>1099.8692917724609</v>
+      </c>
+      <c r="K3">
+        <v>1062.6244957370507</v>
+      </c>
+      <c r="L3">
+        <v>1025.3796997016407</v>
+      </c>
+      <c r="M3">
+        <v>988.13490366623034</v>
+      </c>
+      <c r="N3">
+        <v>977.73348362763841</v>
+      </c>
+      <c r="O3">
+        <v>967.33206358904647</v>
+      </c>
+      <c r="P3">
+        <v>956.93064355045465</v>
+      </c>
+      <c r="Q3">
+        <v>946.52922351186271</v>
+      </c>
+      <c r="R3">
+        <v>936.12780347327077</v>
+      </c>
+      <c r="S3">
+        <v>930.92709345397486</v>
+      </c>
+      <c r="T3">
+        <v>925.72638343467884</v>
+      </c>
+      <c r="U3">
+        <v>920.52567341538293</v>
+      </c>
+      <c r="V3">
+        <v>915.32496339608701</v>
+      </c>
+      <c r="W3">
+        <v>910.1242533767911</v>
+      </c>
+      <c r="X3">
+        <v>904.92354335749519</v>
+      </c>
+      <c r="Y3">
+        <v>899.72283333819917</v>
+      </c>
+      <c r="Z3">
+        <v>894.52212331890325</v>
+      </c>
+      <c r="AA3">
+        <v>889.32141329960734</v>
+      </c>
+      <c r="AB3">
+        <v>884.12070328031132</v>
+      </c>
+      <c r="AC3">
+        <v>878.91999326101541</v>
+      </c>
+      <c r="AD3">
+        <v>873.71928324171949</v>
+      </c>
+      <c r="AE3">
+        <v>868.51857322242347</v>
+      </c>
+      <c r="AF3">
+        <v>863.31786320312756</v>
+      </c>
+      <c r="AG3">
+        <v>858.11715318383165</v>
+      </c>
+      <c r="AH3">
+        <v>852.91644316453562</v>
+      </c>
+      <c r="AI3">
+        <v>847.71573314523971</v>
+      </c>
+      <c r="AJ3">
+        <v>842.51502312594369</v>
+      </c>
+      <c r="AK3">
+        <v>837.31431310664777</v>
+      </c>
+      <c r="AL3">
+        <v>832.11360308735186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>2699.0704726412869</v>
+      </c>
+      <c r="C4">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="D4">
+        <v>2169.1312187681965</v>
+      </c>
+      <c r="E4">
+        <v>2089.1478434580968</v>
+      </c>
+      <c r="F4">
+        <v>2009.164468147997</v>
+      </c>
+      <c r="G4">
+        <v>1929.1810928378975</v>
+      </c>
+      <c r="H4">
+        <v>1849.1977175277975</v>
+      </c>
+      <c r="I4">
+        <v>1764.9486285991418</v>
+      </c>
+      <c r="J4">
+        <v>1680.6995396704858</v>
+      </c>
+      <c r="K4">
+        <v>1596.4504507418301</v>
+      </c>
+      <c r="L4">
+        <v>1512.2013618131743</v>
+      </c>
+      <c r="M4">
+        <v>1427.9522728845182</v>
+      </c>
+      <c r="N4">
+        <v>1396.4143686581572</v>
+      </c>
+      <c r="O4">
+        <v>1364.8764644317962</v>
+      </c>
+      <c r="P4">
+        <v>1333.3385602054352</v>
+      </c>
+      <c r="Q4">
+        <v>1301.800655979074</v>
+      </c>
+      <c r="R4">
+        <v>1270.2627517527126</v>
+      </c>
+      <c r="S4">
+        <v>1247.9007657157724</v>
+      </c>
+      <c r="T4">
+        <v>1225.5387796788323</v>
+      </c>
+      <c r="U4">
+        <v>1203.1767936418921</v>
+      </c>
+      <c r="V4">
+        <v>1180.8148076049517</v>
+      </c>
+      <c r="W4">
+        <v>1158.4528215680111</v>
+      </c>
+      <c r="X4">
+        <v>1136.090835531071</v>
+      </c>
+      <c r="Y4">
+        <v>1113.7288494941306</v>
+      </c>
+      <c r="Z4">
+        <v>1091.3668634571902</v>
+      </c>
+      <c r="AA4">
+        <v>1069.0048774202498</v>
+      </c>
+      <c r="AB4">
+        <v>1046.6428913833097</v>
+      </c>
+      <c r="AC4">
+        <v>1040.7920926116019</v>
+      </c>
+      <c r="AD4">
+        <v>1034.9412938398939</v>
+      </c>
+      <c r="AE4">
+        <v>1029.0904950681859</v>
+      </c>
+      <c r="AF4">
+        <v>1023.2396962964781</v>
+      </c>
+      <c r="AG4">
+        <v>1017.3888975247701</v>
+      </c>
+      <c r="AH4">
+        <v>1011.5380987530621</v>
+      </c>
+      <c r="AI4">
+        <v>1005.6872999813542</v>
+      </c>
+      <c r="AJ4">
+        <v>999.83650120964626</v>
+      </c>
+      <c r="AK4">
+        <v>993.98570243793836</v>
+      </c>
+      <c r="AL4">
+        <v>988.13490366623034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>2699.0704726412869</v>
+      </c>
+      <c r="C5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="D5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="E5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="F5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="G5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="H5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="I5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="J5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="K5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="L5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="M5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="N5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="O5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="P5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="Q5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="R5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="S5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="T5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="U5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="V5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="W5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="X5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="Y5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="Z5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AA5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AB5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AC5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AD5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AE5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AF5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AG5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AH5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AI5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AJ5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AK5">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AL5">
+        <v>2249.1145940782962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>2699.0704726412869</v>
+      </c>
+      <c r="C6">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="D6">
+        <v>2034.1634520312932</v>
+      </c>
+      <c r="E6">
+        <v>1819.2123099842902</v>
+      </c>
+      <c r="F6">
+        <v>1604.2611679372872</v>
+      </c>
+      <c r="G6">
+        <v>1389.3100258902841</v>
+      </c>
+      <c r="H6">
+        <v>1174.3588838432811</v>
+      </c>
+      <c r="I6">
+        <v>1137.1140878078711</v>
+      </c>
+      <c r="J6">
+        <v>1099.8692917724609</v>
+      </c>
+      <c r="K6">
+        <v>1062.6244957370507</v>
+      </c>
+      <c r="L6">
+        <v>1025.3796997016407</v>
+      </c>
+      <c r="M6">
+        <v>988.13490366623034</v>
+      </c>
+      <c r="N6">
+        <v>977.73348362763841</v>
+      </c>
+      <c r="O6">
+        <v>967.33206358904647</v>
+      </c>
+      <c r="P6">
+        <v>956.93064355045465</v>
+      </c>
+      <c r="Q6">
+        <v>946.52922351186271</v>
+      </c>
+      <c r="R6">
+        <v>936.12780347327077</v>
+      </c>
+      <c r="S6">
+        <v>930.92709345397486</v>
+      </c>
+      <c r="T6">
+        <v>925.72638343467884</v>
+      </c>
+      <c r="U6">
+        <v>920.52567341538293</v>
+      </c>
+      <c r="V6">
+        <v>915.32496339608701</v>
+      </c>
+      <c r="W6">
+        <v>910.1242533767911</v>
+      </c>
+      <c r="X6">
+        <v>904.92354335749519</v>
+      </c>
+      <c r="Y6">
+        <v>899.72283333819917</v>
+      </c>
+      <c r="Z6">
+        <v>894.52212331890325</v>
+      </c>
+      <c r="AA6">
+        <v>889.32141329960734</v>
+      </c>
+      <c r="AB6">
+        <v>884.12070328031132</v>
+      </c>
+      <c r="AC6">
+        <v>878.91999326101541</v>
+      </c>
+      <c r="AD6">
+        <v>873.71928324171949</v>
+      </c>
+      <c r="AE6">
+        <v>868.51857322242347</v>
+      </c>
+      <c r="AF6">
+        <v>863.31786320312756</v>
+      </c>
+      <c r="AG6">
+        <v>858.11715318383165</v>
+      </c>
+      <c r="AH6">
+        <v>852.91644316453562</v>
+      </c>
+      <c r="AI6">
+        <v>847.71573314523971</v>
+      </c>
+      <c r="AJ6">
+        <v>842.51502312594369</v>
+      </c>
+      <c r="AK6">
+        <v>837.31431310664777</v>
+      </c>
+      <c r="AL6">
+        <v>832.11360308735186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>2699.0704726412869</v>
+      </c>
+      <c r="C7">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="D7">
+        <v>2169.1312187681965</v>
+      </c>
+      <c r="E7">
+        <v>2089.1478434580968</v>
+      </c>
+      <c r="F7">
+        <v>2009.164468147997</v>
+      </c>
+      <c r="G7">
+        <v>1929.1810928378975</v>
+      </c>
+      <c r="H7">
+        <v>1849.1977175277975</v>
+      </c>
+      <c r="I7">
+        <v>1764.9486285991418</v>
+      </c>
+      <c r="J7">
+        <v>1680.6995396704858</v>
+      </c>
+      <c r="K7">
+        <v>1596.4504507418301</v>
+      </c>
+      <c r="L7">
+        <v>1512.2013618131743</v>
+      </c>
+      <c r="M7">
+        <v>1427.9522728845182</v>
+      </c>
+      <c r="N7">
+        <v>1396.4143686581572</v>
+      </c>
+      <c r="O7">
+        <v>1364.8764644317962</v>
+      </c>
+      <c r="P7">
+        <v>1333.3385602054352</v>
+      </c>
+      <c r="Q7">
+        <v>1301.800655979074</v>
+      </c>
+      <c r="R7">
+        <v>1270.2627517527126</v>
+      </c>
+      <c r="S7">
+        <v>1247.9007657157724</v>
+      </c>
+      <c r="T7">
+        <v>1225.5387796788323</v>
+      </c>
+      <c r="U7">
+        <v>1203.1767936418921</v>
+      </c>
+      <c r="V7">
+        <v>1180.8148076049517</v>
+      </c>
+      <c r="W7">
+        <v>1158.4528215680111</v>
+      </c>
+      <c r="X7">
+        <v>1136.090835531071</v>
+      </c>
+      <c r="Y7">
+        <v>1113.7288494941306</v>
+      </c>
+      <c r="Z7">
+        <v>1091.3668634571902</v>
+      </c>
+      <c r="AA7">
+        <v>1069.0048774202498</v>
+      </c>
+      <c r="AB7">
+        <v>1046.6428913833097</v>
+      </c>
+      <c r="AC7">
+        <v>1040.7920926116019</v>
+      </c>
+      <c r="AD7">
+        <v>1034.9412938398939</v>
+      </c>
+      <c r="AE7">
+        <v>1029.0904950681859</v>
+      </c>
+      <c r="AF7">
+        <v>1023.2396962964781</v>
+      </c>
+      <c r="AG7">
+        <v>1017.3888975247701</v>
+      </c>
+      <c r="AH7">
+        <v>1011.5380987530621</v>
+      </c>
+      <c r="AI7">
+        <v>1005.6872999813542</v>
+      </c>
+      <c r="AJ7">
+        <v>999.83650120964626</v>
+      </c>
+      <c r="AK7">
+        <v>993.98570243793836</v>
+      </c>
+      <c r="AL7">
+        <v>988.13490366623034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>2699.0704726412869</v>
+      </c>
+      <c r="C8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="D8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="E8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="F8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="G8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="H8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="I8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="J8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="K8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="L8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="M8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="N8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="O8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="P8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="Q8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="R8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="S8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="T8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="U8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="V8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="W8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="X8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="Y8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="Z8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AA8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AB8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AC8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AD8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AE8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AF8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AG8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AH8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AI8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AJ8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AK8">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AL8">
+        <v>2249.1145940782962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>2699.0704726412869</v>
+      </c>
+      <c r="C9">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="D9">
+        <v>2034.1634520312932</v>
+      </c>
+      <c r="E9">
+        <v>1819.2123099842902</v>
+      </c>
+      <c r="F9">
+        <v>1604.2611679372872</v>
+      </c>
+      <c r="G9">
+        <v>1389.3100258902841</v>
+      </c>
+      <c r="H9">
+        <v>1174.3588838432811</v>
+      </c>
+      <c r="I9">
+        <v>1137.1140878078711</v>
+      </c>
+      <c r="J9">
+        <v>1099.8692917724609</v>
+      </c>
+      <c r="K9">
+        <v>1062.6244957370507</v>
+      </c>
+      <c r="L9">
+        <v>1025.3796997016407</v>
+      </c>
+      <c r="M9">
+        <v>988.13490366623034</v>
+      </c>
+      <c r="N9">
+        <v>977.73348362763841</v>
+      </c>
+      <c r="O9">
+        <v>967.33206358904647</v>
+      </c>
+      <c r="P9">
+        <v>956.93064355045465</v>
+      </c>
+      <c r="Q9">
+        <v>946.52922351186271</v>
+      </c>
+      <c r="R9">
+        <v>936.12780347327077</v>
+      </c>
+      <c r="S9">
+        <v>930.92709345397486</v>
+      </c>
+      <c r="T9">
+        <v>925.72638343467884</v>
+      </c>
+      <c r="U9">
+        <v>920.52567341538293</v>
+      </c>
+      <c r="V9">
+        <v>915.32496339608701</v>
+      </c>
+      <c r="W9">
+        <v>910.1242533767911</v>
+      </c>
+      <c r="X9">
+        <v>904.92354335749519</v>
+      </c>
+      <c r="Y9">
+        <v>899.72283333819917</v>
+      </c>
+      <c r="Z9">
+        <v>894.52212331890325</v>
+      </c>
+      <c r="AA9">
+        <v>889.32141329960734</v>
+      </c>
+      <c r="AB9">
+        <v>884.12070328031132</v>
+      </c>
+      <c r="AC9">
+        <v>878.91999326101541</v>
+      </c>
+      <c r="AD9">
+        <v>873.71928324171949</v>
+      </c>
+      <c r="AE9">
+        <v>868.51857322242347</v>
+      </c>
+      <c r="AF9">
+        <v>863.31786320312756</v>
+      </c>
+      <c r="AG9">
+        <v>858.11715318383165</v>
+      </c>
+      <c r="AH9">
+        <v>852.91644316453562</v>
+      </c>
+      <c r="AI9">
+        <v>847.71573314523971</v>
+      </c>
+      <c r="AJ9">
+        <v>842.51502312594369</v>
+      </c>
+      <c r="AK9">
+        <v>837.31431310664777</v>
+      </c>
+      <c r="AL9">
+        <v>832.11360308735186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>2699.0704726412869</v>
+      </c>
+      <c r="C10">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="D10">
+        <v>2169.1312187681965</v>
+      </c>
+      <c r="E10">
+        <v>2089.1478434580968</v>
+      </c>
+      <c r="F10">
+        <v>2009.164468147997</v>
+      </c>
+      <c r="G10">
+        <v>1929.1810928378975</v>
+      </c>
+      <c r="H10">
+        <v>1849.1977175277975</v>
+      </c>
+      <c r="I10">
+        <v>1764.9486285991418</v>
+      </c>
+      <c r="J10">
+        <v>1680.6995396704858</v>
+      </c>
+      <c r="K10">
+        <v>1596.4504507418301</v>
+      </c>
+      <c r="L10">
+        <v>1512.2013618131743</v>
+      </c>
+      <c r="M10">
+        <v>1427.9522728845182</v>
+      </c>
+      <c r="N10">
+        <v>1396.4143686581572</v>
+      </c>
+      <c r="O10">
+        <v>1364.8764644317962</v>
+      </c>
+      <c r="P10">
+        <v>1333.3385602054352</v>
+      </c>
+      <c r="Q10">
+        <v>1301.800655979074</v>
+      </c>
+      <c r="R10">
+        <v>1270.2627517527126</v>
+      </c>
+      <c r="S10">
+        <v>1247.9007657157724</v>
+      </c>
+      <c r="T10">
+        <v>1225.5387796788323</v>
+      </c>
+      <c r="U10">
+        <v>1203.1767936418921</v>
+      </c>
+      <c r="V10">
+        <v>1180.8148076049517</v>
+      </c>
+      <c r="W10">
+        <v>1158.4528215680111</v>
+      </c>
+      <c r="X10">
+        <v>1136.090835531071</v>
+      </c>
+      <c r="Y10">
+        <v>1113.7288494941306</v>
+      </c>
+      <c r="Z10">
+        <v>1091.3668634571902</v>
+      </c>
+      <c r="AA10">
+        <v>1069.0048774202498</v>
+      </c>
+      <c r="AB10">
+        <v>1046.6428913833097</v>
+      </c>
+      <c r="AC10">
+        <v>1040.7920926116019</v>
+      </c>
+      <c r="AD10">
+        <v>1034.9412938398939</v>
+      </c>
+      <c r="AE10">
+        <v>1029.0904950681859</v>
+      </c>
+      <c r="AF10">
+        <v>1023.2396962964781</v>
+      </c>
+      <c r="AG10">
+        <v>1017.3888975247701</v>
+      </c>
+      <c r="AH10">
+        <v>1011.5380987530621</v>
+      </c>
+      <c r="AI10">
+        <v>1005.6872999813542</v>
+      </c>
+      <c r="AJ10">
+        <v>999.83650120964626</v>
+      </c>
+      <c r="AK10">
+        <v>993.98570243793836</v>
+      </c>
+      <c r="AL10">
+        <v>988.13490366623034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>2699.0704726412869</v>
+      </c>
+      <c r="C11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="D11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="E11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="F11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="G11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="H11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="I11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="J11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="K11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="L11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="M11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="N11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="O11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="P11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="Q11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="R11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="S11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="T11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="U11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="V11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="W11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="X11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="Y11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="Z11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AA11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AB11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AC11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AD11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AE11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AF11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AG11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AH11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AI11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AJ11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AK11">
+        <v>2249.1145940782962</v>
+      </c>
+      <c r="AL11">
+        <v>2249.1145940782962</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1931C-48B9-4FBB-A7D3-AEA3209FE706}">
   <dimension ref="A1:AL11"/>
   <sheetViews>
@@ -26447,1334 +24235,6 @@
       </c>
       <c r="AL11">
         <v>3096.3247362003567</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1865600-602D-464C-9FEE-DD8BE476CEED}">
-  <dimension ref="A1:AL11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AL2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38">
-      <c r="B1">
-        <v>2014</v>
-      </c>
-      <c r="C1">
-        <v>2015</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1">
-        <v>2017</v>
-      </c>
-      <c r="F1">
-        <v>2018</v>
-      </c>
-      <c r="G1">
-        <v>2019</v>
-      </c>
-      <c r="H1">
-        <v>2020</v>
-      </c>
-      <c r="I1">
-        <v>2021</v>
-      </c>
-      <c r="J1">
-        <v>2022</v>
-      </c>
-      <c r="K1">
-        <v>2023</v>
-      </c>
-      <c r="L1">
-        <v>2024</v>
-      </c>
-      <c r="M1">
-        <v>2025</v>
-      </c>
-      <c r="N1">
-        <v>2026</v>
-      </c>
-      <c r="O1">
-        <v>2027</v>
-      </c>
-      <c r="P1">
-        <v>2028</v>
-      </c>
-      <c r="Q1">
-        <v>2029</v>
-      </c>
-      <c r="R1">
-        <v>2030</v>
-      </c>
-      <c r="S1">
-        <v>2031</v>
-      </c>
-      <c r="T1">
-        <v>2032</v>
-      </c>
-      <c r="U1">
-        <v>2033</v>
-      </c>
-      <c r="V1">
-        <v>2034</v>
-      </c>
-      <c r="W1">
-        <v>2035</v>
-      </c>
-      <c r="X1">
-        <v>2036</v>
-      </c>
-      <c r="Y1">
-        <v>2037</v>
-      </c>
-      <c r="Z1">
-        <v>2038</v>
-      </c>
-      <c r="AA1">
-        <v>2039</v>
-      </c>
-      <c r="AB1">
-        <v>2040</v>
-      </c>
-      <c r="AC1">
-        <v>2041</v>
-      </c>
-      <c r="AD1">
-        <v>2042</v>
-      </c>
-      <c r="AE1">
-        <v>2043</v>
-      </c>
-      <c r="AF1">
-        <v>2044</v>
-      </c>
-      <c r="AG1">
-        <v>2045</v>
-      </c>
-      <c r="AH1">
-        <v>2046</v>
-      </c>
-      <c r="AI1">
-        <v>2047</v>
-      </c>
-      <c r="AJ1">
-        <v>2048</v>
-      </c>
-      <c r="AK1">
-        <v>2049</v>
-      </c>
-      <c r="AL1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>AVERAGE(B3:B11)</f>
-        <v>2699.0704726412873</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:AL2" si="0">AVERAGE(C3:C11)</f>
-        <v>2249.1145940782958</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>2150.803088292595</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>2052.4915825068942</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>1954.1800767211935</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>1855.8685709354929</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>1757.5570651497915</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>1717.059103495103</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>1676.5611418404142</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>1636.063180185726</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>1595.5652185310371</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>1555.0672568763484</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>1541.087482121364</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>1527.1077073663796</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>1513.1279326113954</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>1499.148157856411</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="0"/>
-        <v>1485.1683831014266</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="0"/>
-        <v>1475.9808177493478</v>
-      </c>
-      <c r="T2">
-        <f t="shared" si="0"/>
-        <v>1466.7932523972693</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="0"/>
-        <v>1457.6056870451903</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="0"/>
-        <v>1448.4181216931117</v>
-      </c>
-      <c r="W2">
-        <f t="shared" si="0"/>
-        <v>1439.2305563410328</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="0"/>
-        <v>1430.0429909889544</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" si="0"/>
-        <v>1420.8554256368755</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>1411.6678602847965</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>1402.4802949327179</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" si="0"/>
-        <v>1393.2927295806392</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="0"/>
-        <v>1389.6088933169713</v>
-      </c>
-      <c r="AD2">
-        <f t="shared" si="0"/>
-        <v>1385.9250570533031</v>
-      </c>
-      <c r="AE2">
-        <f t="shared" si="0"/>
-        <v>1382.2412207896352</v>
-      </c>
-      <c r="AF2">
-        <f t="shared" si="0"/>
-        <v>1378.5573845259669</v>
-      </c>
-      <c r="AG2">
-        <f t="shared" si="0"/>
-        <v>1374.8735482622994</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="0"/>
-        <v>1371.1897119986315</v>
-      </c>
-      <c r="AI2">
-        <f t="shared" si="0"/>
-        <v>1367.5058757349636</v>
-      </c>
-      <c r="AJ2">
-        <f t="shared" si="0"/>
-        <v>1363.8220394712953</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" si="0"/>
-        <v>1360.1382032076274</v>
-      </c>
-      <c r="AL2">
-        <f t="shared" si="0"/>
-        <v>1356.4543669439595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3">
-        <v>2699.0704726412869</v>
-      </c>
-      <c r="C3">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="D3">
-        <v>2034.1634520312932</v>
-      </c>
-      <c r="E3">
-        <v>1819.2123099842902</v>
-      </c>
-      <c r="F3">
-        <v>1604.2611679372872</v>
-      </c>
-      <c r="G3">
-        <v>1389.3100258902841</v>
-      </c>
-      <c r="H3">
-        <v>1174.3588838432811</v>
-      </c>
-      <c r="I3">
-        <v>1137.1140878078711</v>
-      </c>
-      <c r="J3">
-        <v>1099.8692917724609</v>
-      </c>
-      <c r="K3">
-        <v>1062.6244957370507</v>
-      </c>
-      <c r="L3">
-        <v>1025.3796997016407</v>
-      </c>
-      <c r="M3">
-        <v>988.13490366623034</v>
-      </c>
-      <c r="N3">
-        <v>977.73348362763841</v>
-      </c>
-      <c r="O3">
-        <v>967.33206358904647</v>
-      </c>
-      <c r="P3">
-        <v>956.93064355045465</v>
-      </c>
-      <c r="Q3">
-        <v>946.52922351186271</v>
-      </c>
-      <c r="R3">
-        <v>936.12780347327077</v>
-      </c>
-      <c r="S3">
-        <v>930.92709345397486</v>
-      </c>
-      <c r="T3">
-        <v>925.72638343467884</v>
-      </c>
-      <c r="U3">
-        <v>920.52567341538293</v>
-      </c>
-      <c r="V3">
-        <v>915.32496339608701</v>
-      </c>
-      <c r="W3">
-        <v>910.1242533767911</v>
-      </c>
-      <c r="X3">
-        <v>904.92354335749519</v>
-      </c>
-      <c r="Y3">
-        <v>899.72283333819917</v>
-      </c>
-      <c r="Z3">
-        <v>894.52212331890325</v>
-      </c>
-      <c r="AA3">
-        <v>889.32141329960734</v>
-      </c>
-      <c r="AB3">
-        <v>884.12070328031132</v>
-      </c>
-      <c r="AC3">
-        <v>878.91999326101541</v>
-      </c>
-      <c r="AD3">
-        <v>873.71928324171949</v>
-      </c>
-      <c r="AE3">
-        <v>868.51857322242347</v>
-      </c>
-      <c r="AF3">
-        <v>863.31786320312756</v>
-      </c>
-      <c r="AG3">
-        <v>858.11715318383165</v>
-      </c>
-      <c r="AH3">
-        <v>852.91644316453562</v>
-      </c>
-      <c r="AI3">
-        <v>847.71573314523971</v>
-      </c>
-      <c r="AJ3">
-        <v>842.51502312594369</v>
-      </c>
-      <c r="AK3">
-        <v>837.31431310664777</v>
-      </c>
-      <c r="AL3">
-        <v>832.11360308735186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4">
-        <v>2699.0704726412869</v>
-      </c>
-      <c r="C4">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="D4">
-        <v>2169.1312187681965</v>
-      </c>
-      <c r="E4">
-        <v>2089.1478434580968</v>
-      </c>
-      <c r="F4">
-        <v>2009.164468147997</v>
-      </c>
-      <c r="G4">
-        <v>1929.1810928378975</v>
-      </c>
-      <c r="H4">
-        <v>1849.1977175277975</v>
-      </c>
-      <c r="I4">
-        <v>1764.9486285991418</v>
-      </c>
-      <c r="J4">
-        <v>1680.6995396704858</v>
-      </c>
-      <c r="K4">
-        <v>1596.4504507418301</v>
-      </c>
-      <c r="L4">
-        <v>1512.2013618131743</v>
-      </c>
-      <c r="M4">
-        <v>1427.9522728845182</v>
-      </c>
-      <c r="N4">
-        <v>1396.4143686581572</v>
-      </c>
-      <c r="O4">
-        <v>1364.8764644317962</v>
-      </c>
-      <c r="P4">
-        <v>1333.3385602054352</v>
-      </c>
-      <c r="Q4">
-        <v>1301.800655979074</v>
-      </c>
-      <c r="R4">
-        <v>1270.2627517527126</v>
-      </c>
-      <c r="S4">
-        <v>1247.9007657157724</v>
-      </c>
-      <c r="T4">
-        <v>1225.5387796788323</v>
-      </c>
-      <c r="U4">
-        <v>1203.1767936418921</v>
-      </c>
-      <c r="V4">
-        <v>1180.8148076049517</v>
-      </c>
-      <c r="W4">
-        <v>1158.4528215680111</v>
-      </c>
-      <c r="X4">
-        <v>1136.090835531071</v>
-      </c>
-      <c r="Y4">
-        <v>1113.7288494941306</v>
-      </c>
-      <c r="Z4">
-        <v>1091.3668634571902</v>
-      </c>
-      <c r="AA4">
-        <v>1069.0048774202498</v>
-      </c>
-      <c r="AB4">
-        <v>1046.6428913833097</v>
-      </c>
-      <c r="AC4">
-        <v>1040.7920926116019</v>
-      </c>
-      <c r="AD4">
-        <v>1034.9412938398939</v>
-      </c>
-      <c r="AE4">
-        <v>1029.0904950681859</v>
-      </c>
-      <c r="AF4">
-        <v>1023.2396962964781</v>
-      </c>
-      <c r="AG4">
-        <v>1017.3888975247701</v>
-      </c>
-      <c r="AH4">
-        <v>1011.5380987530621</v>
-      </c>
-      <c r="AI4">
-        <v>1005.6872999813542</v>
-      </c>
-      <c r="AJ4">
-        <v>999.83650120964626</v>
-      </c>
-      <c r="AK4">
-        <v>993.98570243793836</v>
-      </c>
-      <c r="AL4">
-        <v>988.13490366623034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5">
-        <v>2699.0704726412869</v>
-      </c>
-      <c r="C5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="D5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="E5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="F5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="G5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="H5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="I5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="J5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="K5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="L5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="M5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="N5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="O5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="P5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="Q5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="R5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="S5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="T5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="U5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="V5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="W5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="X5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="Y5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="Z5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AA5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AB5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AC5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AD5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AE5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AF5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AG5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AH5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AI5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AJ5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AK5">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AL5">
-        <v>2249.1145940782962</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6">
-        <v>2699.0704726412869</v>
-      </c>
-      <c r="C6">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="D6">
-        <v>2034.1634520312932</v>
-      </c>
-      <c r="E6">
-        <v>1819.2123099842902</v>
-      </c>
-      <c r="F6">
-        <v>1604.2611679372872</v>
-      </c>
-      <c r="G6">
-        <v>1389.3100258902841</v>
-      </c>
-      <c r="H6">
-        <v>1174.3588838432811</v>
-      </c>
-      <c r="I6">
-        <v>1137.1140878078711</v>
-      </c>
-      <c r="J6">
-        <v>1099.8692917724609</v>
-      </c>
-      <c r="K6">
-        <v>1062.6244957370507</v>
-      </c>
-      <c r="L6">
-        <v>1025.3796997016407</v>
-      </c>
-      <c r="M6">
-        <v>988.13490366623034</v>
-      </c>
-      <c r="N6">
-        <v>977.73348362763841</v>
-      </c>
-      <c r="O6">
-        <v>967.33206358904647</v>
-      </c>
-      <c r="P6">
-        <v>956.93064355045465</v>
-      </c>
-      <c r="Q6">
-        <v>946.52922351186271</v>
-      </c>
-      <c r="R6">
-        <v>936.12780347327077</v>
-      </c>
-      <c r="S6">
-        <v>930.92709345397486</v>
-      </c>
-      <c r="T6">
-        <v>925.72638343467884</v>
-      </c>
-      <c r="U6">
-        <v>920.52567341538293</v>
-      </c>
-      <c r="V6">
-        <v>915.32496339608701</v>
-      </c>
-      <c r="W6">
-        <v>910.1242533767911</v>
-      </c>
-      <c r="X6">
-        <v>904.92354335749519</v>
-      </c>
-      <c r="Y6">
-        <v>899.72283333819917</v>
-      </c>
-      <c r="Z6">
-        <v>894.52212331890325</v>
-      </c>
-      <c r="AA6">
-        <v>889.32141329960734</v>
-      </c>
-      <c r="AB6">
-        <v>884.12070328031132</v>
-      </c>
-      <c r="AC6">
-        <v>878.91999326101541</v>
-      </c>
-      <c r="AD6">
-        <v>873.71928324171949</v>
-      </c>
-      <c r="AE6">
-        <v>868.51857322242347</v>
-      </c>
-      <c r="AF6">
-        <v>863.31786320312756</v>
-      </c>
-      <c r="AG6">
-        <v>858.11715318383165</v>
-      </c>
-      <c r="AH6">
-        <v>852.91644316453562</v>
-      </c>
-      <c r="AI6">
-        <v>847.71573314523971</v>
-      </c>
-      <c r="AJ6">
-        <v>842.51502312594369</v>
-      </c>
-      <c r="AK6">
-        <v>837.31431310664777</v>
-      </c>
-      <c r="AL6">
-        <v>832.11360308735186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7">
-        <v>2699.0704726412869</v>
-      </c>
-      <c r="C7">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="D7">
-        <v>2169.1312187681965</v>
-      </c>
-      <c r="E7">
-        <v>2089.1478434580968</v>
-      </c>
-      <c r="F7">
-        <v>2009.164468147997</v>
-      </c>
-      <c r="G7">
-        <v>1929.1810928378975</v>
-      </c>
-      <c r="H7">
-        <v>1849.1977175277975</v>
-      </c>
-      <c r="I7">
-        <v>1764.9486285991418</v>
-      </c>
-      <c r="J7">
-        <v>1680.6995396704858</v>
-      </c>
-      <c r="K7">
-        <v>1596.4504507418301</v>
-      </c>
-      <c r="L7">
-        <v>1512.2013618131743</v>
-      </c>
-      <c r="M7">
-        <v>1427.9522728845182</v>
-      </c>
-      <c r="N7">
-        <v>1396.4143686581572</v>
-      </c>
-      <c r="O7">
-        <v>1364.8764644317962</v>
-      </c>
-      <c r="P7">
-        <v>1333.3385602054352</v>
-      </c>
-      <c r="Q7">
-        <v>1301.800655979074</v>
-      </c>
-      <c r="R7">
-        <v>1270.2627517527126</v>
-      </c>
-      <c r="S7">
-        <v>1247.9007657157724</v>
-      </c>
-      <c r="T7">
-        <v>1225.5387796788323</v>
-      </c>
-      <c r="U7">
-        <v>1203.1767936418921</v>
-      </c>
-      <c r="V7">
-        <v>1180.8148076049517</v>
-      </c>
-      <c r="W7">
-        <v>1158.4528215680111</v>
-      </c>
-      <c r="X7">
-        <v>1136.090835531071</v>
-      </c>
-      <c r="Y7">
-        <v>1113.7288494941306</v>
-      </c>
-      <c r="Z7">
-        <v>1091.3668634571902</v>
-      </c>
-      <c r="AA7">
-        <v>1069.0048774202498</v>
-      </c>
-      <c r="AB7">
-        <v>1046.6428913833097</v>
-      </c>
-      <c r="AC7">
-        <v>1040.7920926116019</v>
-      </c>
-      <c r="AD7">
-        <v>1034.9412938398939</v>
-      </c>
-      <c r="AE7">
-        <v>1029.0904950681859</v>
-      </c>
-      <c r="AF7">
-        <v>1023.2396962964781</v>
-      </c>
-      <c r="AG7">
-        <v>1017.3888975247701</v>
-      </c>
-      <c r="AH7">
-        <v>1011.5380987530621</v>
-      </c>
-      <c r="AI7">
-        <v>1005.6872999813542</v>
-      </c>
-      <c r="AJ7">
-        <v>999.83650120964626</v>
-      </c>
-      <c r="AK7">
-        <v>993.98570243793836</v>
-      </c>
-      <c r="AL7">
-        <v>988.13490366623034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8">
-        <v>2699.0704726412869</v>
-      </c>
-      <c r="C8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="D8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="E8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="F8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="G8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="H8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="I8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="J8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="K8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="L8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="M8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="N8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="O8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="P8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="Q8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="R8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="S8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="T8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="U8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="V8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="W8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="X8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="Y8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="Z8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AA8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AB8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AC8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AD8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AE8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AF8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AG8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AH8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AI8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AJ8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AK8">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AL8">
-        <v>2249.1145940782962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9">
-        <v>2699.0704726412869</v>
-      </c>
-      <c r="C9">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="D9">
-        <v>2034.1634520312932</v>
-      </c>
-      <c r="E9">
-        <v>1819.2123099842902</v>
-      </c>
-      <c r="F9">
-        <v>1604.2611679372872</v>
-      </c>
-      <c r="G9">
-        <v>1389.3100258902841</v>
-      </c>
-      <c r="H9">
-        <v>1174.3588838432811</v>
-      </c>
-      <c r="I9">
-        <v>1137.1140878078711</v>
-      </c>
-      <c r="J9">
-        <v>1099.8692917724609</v>
-      </c>
-      <c r="K9">
-        <v>1062.6244957370507</v>
-      </c>
-      <c r="L9">
-        <v>1025.3796997016407</v>
-      </c>
-      <c r="M9">
-        <v>988.13490366623034</v>
-      </c>
-      <c r="N9">
-        <v>977.73348362763841</v>
-      </c>
-      <c r="O9">
-        <v>967.33206358904647</v>
-      </c>
-      <c r="P9">
-        <v>956.93064355045465</v>
-      </c>
-      <c r="Q9">
-        <v>946.52922351186271</v>
-      </c>
-      <c r="R9">
-        <v>936.12780347327077</v>
-      </c>
-      <c r="S9">
-        <v>930.92709345397486</v>
-      </c>
-      <c r="T9">
-        <v>925.72638343467884</v>
-      </c>
-      <c r="U9">
-        <v>920.52567341538293</v>
-      </c>
-      <c r="V9">
-        <v>915.32496339608701</v>
-      </c>
-      <c r="W9">
-        <v>910.1242533767911</v>
-      </c>
-      <c r="X9">
-        <v>904.92354335749519</v>
-      </c>
-      <c r="Y9">
-        <v>899.72283333819917</v>
-      </c>
-      <c r="Z9">
-        <v>894.52212331890325</v>
-      </c>
-      <c r="AA9">
-        <v>889.32141329960734</v>
-      </c>
-      <c r="AB9">
-        <v>884.12070328031132</v>
-      </c>
-      <c r="AC9">
-        <v>878.91999326101541</v>
-      </c>
-      <c r="AD9">
-        <v>873.71928324171949</v>
-      </c>
-      <c r="AE9">
-        <v>868.51857322242347</v>
-      </c>
-      <c r="AF9">
-        <v>863.31786320312756</v>
-      </c>
-      <c r="AG9">
-        <v>858.11715318383165</v>
-      </c>
-      <c r="AH9">
-        <v>852.91644316453562</v>
-      </c>
-      <c r="AI9">
-        <v>847.71573314523971</v>
-      </c>
-      <c r="AJ9">
-        <v>842.51502312594369</v>
-      </c>
-      <c r="AK9">
-        <v>837.31431310664777</v>
-      </c>
-      <c r="AL9">
-        <v>832.11360308735186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10">
-        <v>2699.0704726412869</v>
-      </c>
-      <c r="C10">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="D10">
-        <v>2169.1312187681965</v>
-      </c>
-      <c r="E10">
-        <v>2089.1478434580968</v>
-      </c>
-      <c r="F10">
-        <v>2009.164468147997</v>
-      </c>
-      <c r="G10">
-        <v>1929.1810928378975</v>
-      </c>
-      <c r="H10">
-        <v>1849.1977175277975</v>
-      </c>
-      <c r="I10">
-        <v>1764.9486285991418</v>
-      </c>
-      <c r="J10">
-        <v>1680.6995396704858</v>
-      </c>
-      <c r="K10">
-        <v>1596.4504507418301</v>
-      </c>
-      <c r="L10">
-        <v>1512.2013618131743</v>
-      </c>
-      <c r="M10">
-        <v>1427.9522728845182</v>
-      </c>
-      <c r="N10">
-        <v>1396.4143686581572</v>
-      </c>
-      <c r="O10">
-        <v>1364.8764644317962</v>
-      </c>
-      <c r="P10">
-        <v>1333.3385602054352</v>
-      </c>
-      <c r="Q10">
-        <v>1301.800655979074</v>
-      </c>
-      <c r="R10">
-        <v>1270.2627517527126</v>
-      </c>
-      <c r="S10">
-        <v>1247.9007657157724</v>
-      </c>
-      <c r="T10">
-        <v>1225.5387796788323</v>
-      </c>
-      <c r="U10">
-        <v>1203.1767936418921</v>
-      </c>
-      <c r="V10">
-        <v>1180.8148076049517</v>
-      </c>
-      <c r="W10">
-        <v>1158.4528215680111</v>
-      </c>
-      <c r="X10">
-        <v>1136.090835531071</v>
-      </c>
-      <c r="Y10">
-        <v>1113.7288494941306</v>
-      </c>
-      <c r="Z10">
-        <v>1091.3668634571902</v>
-      </c>
-      <c r="AA10">
-        <v>1069.0048774202498</v>
-      </c>
-      <c r="AB10">
-        <v>1046.6428913833097</v>
-      </c>
-      <c r="AC10">
-        <v>1040.7920926116019</v>
-      </c>
-      <c r="AD10">
-        <v>1034.9412938398939</v>
-      </c>
-      <c r="AE10">
-        <v>1029.0904950681859</v>
-      </c>
-      <c r="AF10">
-        <v>1023.2396962964781</v>
-      </c>
-      <c r="AG10">
-        <v>1017.3888975247701</v>
-      </c>
-      <c r="AH10">
-        <v>1011.5380987530621</v>
-      </c>
-      <c r="AI10">
-        <v>1005.6872999813542</v>
-      </c>
-      <c r="AJ10">
-        <v>999.83650120964626</v>
-      </c>
-      <c r="AK10">
-        <v>993.98570243793836</v>
-      </c>
-      <c r="AL10">
-        <v>988.13490366623034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11">
-        <v>2699.0704726412869</v>
-      </c>
-      <c r="C11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="D11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="E11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="F11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="G11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="H11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="I11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="J11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="K11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="L11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="M11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="N11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="O11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="P11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="Q11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="R11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="S11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="T11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="U11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="V11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="W11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="X11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="Y11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="Z11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AA11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AB11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AC11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AD11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AE11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AF11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AG11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AH11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AI11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AJ11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AK11">
-        <v>2249.1145940782962</v>
-      </c>
-      <c r="AL11">
-        <v>2249.1145940782962</v>
       </c>
     </row>
   </sheetData>
